--- a/data/trans_camb/P7C_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-0,21</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,89</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,73</t>
+          <t>-8,52; 6,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 5,56</t>
+          <t>-7,63; 9,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,06</t>
+          <t>-7,64; 10,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,24</t>
+          <t>-8,4; 6,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,69</t>
+          <t>-5,09; 4,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 4,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 3,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 7,99</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,97%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-39,24%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,55%</t>
+          <t>-10,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>61,59%</t>
         </is>
       </c>
     </row>
@@ -806,7 +875,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-86,01; 382,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,17 +890,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,8; 326,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 284,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 227,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>27,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 20,78</t>
+          <t>-28,87; 32,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 17,5</t>
+          <t>-30,06; 27,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 19,11</t>
+          <t>-32,49; 28,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 16,52</t>
+          <t>-5,24; 55,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 15,64</t>
+          <t>-18,62; 19,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 14,32</t>
+          <t>-19,37; 18,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 14,63</t>
+          <t>-20,13; 17,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 12,54</t>
+          <t>-13,6; 25,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 12,25</t>
+          <t>-18,32; 18,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 16,02</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 16,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 38,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>44,13%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 102,96</t>
+          <t>-67,99; 147,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 88,42</t>
+          <t>-69,56; 124,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 97,0</t>
+          <t>-69,9; 134,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 37,42</t>
+          <t>-30,38; 284,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 36,4</t>
+          <t>-34,0; 50,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 31,92</t>
+          <t>-35,14; 49,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 42,37</t>
+          <t>-37,09; 44,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 35,51</t>
+          <t>-25,28; 70,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 35,82</t>
+          <t>-39,63; 55,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,31; 49,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-45,29; 47,8</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 115,49</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 20,08</t>
+          <t>-18,88; 17,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 16,35</t>
+          <t>-18,7; 18,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 18,1</t>
+          <t>-18,46; 17,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 10,95</t>
+          <t>-16,7; 21,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 10,29</t>
+          <t>-13,36; 13,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 10,69</t>
+          <t>-14,09; 13,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 11,11</t>
+          <t>-14,15; 13,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 8,57</t>
+          <t>-3,05; 24,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 9,98</t>
+          <t>-10,03; 11,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 12,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 12,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 20,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 61,27</t>
+          <t>-36,86; 53,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 48,43</t>
+          <t>-35,64; 56,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 53,83</t>
+          <t>-35,41; 55,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 35,05</t>
+          <t>-30,28; 65,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 32,48</t>
+          <t>-28,67; 40,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 32,42</t>
+          <t>-29,11; 39,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 31,74</t>
+          <t>-29,05; 38,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 24,89</t>
+          <t>-5,86; 78,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 27,98</t>
+          <t>-21,43; 34,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 36,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 32,85</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 55,71</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 6,06</t>
+          <t>-10,24; 9,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 5,05</t>
+          <t>-10,15; 9,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,82</t>
+          <t>-10,34; 8,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,47</t>
+          <t>-1,84; 20,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,89</t>
+          <t>-5,26; 6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,86</t>
+          <t>-4,7; 7,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,63</t>
+          <t>-4,71; 7,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,36</t>
+          <t>-0,73; 13,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,3</t>
+          <t>-5,83; 4,79</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 5,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 5,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 14,79</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-11,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>130,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>104,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 164,62</t>
+          <t>-68,0; 190,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 151,38</t>
+          <t>-67,92; 189,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,57; 147,42</t>
+          <t>-67,9; 186,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,97; 259,7</t>
+          <t>-17,4; 396,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 231,77</t>
+          <t>-79,25; 346,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 241,7</t>
+          <t>-72,14; 428,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 106,44</t>
+          <t>-72,11; 435,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,35; 101,39</t>
+          <t>-20,68; 687,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 98,96</t>
+          <t>-60,8; 110,23</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-53,93; 115,91</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-54,09; 116,4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 310,25</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>-1,2</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,09</t>
+          <t>-4,32; 2,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,58</t>
+          <t>-2,88; 4,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,82</t>
+          <t>-4,31; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 3,93</t>
+          <t>-1,43; 9,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 3,52</t>
+          <t>-13,57; 7,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,94</t>
+          <t>-15,98; 6,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,43</t>
+          <t>-16,73; 4,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,53</t>
+          <t>-12,4; 11,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,57</t>
+          <t>-7,17; 3,62</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 3,17</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 2,52</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 7,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-49,99%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-52,31%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>206,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,69%</t>
+          <t>-26,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>-40,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>-53,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-41,53%</t>
+          <t>-18,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-23,2%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-35,11%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-45,62%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1979,47 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 237,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 317,4</t>
+          <t>-84,88; 296,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 335,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-77,43; 196,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 132,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,25; 190,79</t>
+          <t>-82,87; 210,92</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-88,92; 193,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 179,54</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-61,91; 308,87</t>
         </is>
       </c>
     </row>
@@ -1722,7 +2046,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +2071,27 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
         </is>
       </c>
     </row>
@@ -1775,7 +2114,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1800,12 +2139,27 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,73</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 31,98</t>
         </is>
       </c>
     </row>
@@ -1853,10 +2207,25 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,86</t>
+          <t>-8,83; 8,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,21</t>
+          <t>-9,44; 6,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,55</t>
+          <t>-9,03; 7,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,25</t>
+          <t>-0,17; 23,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,36</t>
+          <t>-5,28; 6,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,9</t>
+          <t>-5,52; 5,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,76</t>
+          <t>-6,07; 4,8</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,8</t>
+          <t>-1,01; 13,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,24</t>
+          <t>-4,43; 5,63</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 4,03</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 4,01</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 14,96</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 63,27</t>
+          <t>-40,92; 65,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 42,27</t>
+          <t>-45,85; 47,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 44,72</t>
+          <t>-42,38; 60,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 32,48</t>
+          <t>-4,45; 153,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 27,18</t>
+          <t>-23,05; 38,88</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 24,95</t>
+          <t>-23,79; 31,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 31,43</t>
+          <t>-26,02; 27,92</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 18,83</t>
+          <t>-4,61; 75,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 21,24</t>
+          <t>-21,48; 34,25</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 24,51</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-25,93; 23,93</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 90,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
